--- a/admin/upload_excel/uploads/dshinhanh.xlsx
+++ b/admin/upload_excel/uploads/dshinhanh.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC02347-6E81-46DD-9F39-6DB1D59336C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{983BA49D-3CCB-4C97-A2A1-08643C5E13CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{AB859541-987A-4403-B747-021B1E754887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{AB859541-987A-4403-B747-021B1E754887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>idsp</t>
   </si>
@@ -78,17 +79,30 @@
     <t>apple-watch-s5-lte1-180x125.jpg</t>
   </si>
   <si>
-    <t>apple-watch-s5-44mm-vien-nhom-day-cao-su-10-600x600.jpg</t>
+    <t>apple-watch-s5-lte0-180x125.png</t>
+  </si>
+  <si>
+    <t>apple-watch-s5-lte-44mm-vien-nhom-day-cao-su-hong-ava-180x125 (1).jpg</t>
+  </si>
+  <si>
+    <t>apple-watch-s5-lte1-180x125 (1).jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6D223B-8F01-4905-A73C-B3C1D6BECF62}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,14 +566,31 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>77</v>
+      </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>